--- a/docentes/Morales Vallejo Jorge Luis Estadisticos 2020.xlsx
+++ b/docentes/Morales Vallejo Jorge Luis Estadisticos 2020.xlsx
@@ -1312,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1335,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1358,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1381,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1404,7 +1404,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1427,7 +1427,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1450,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1473,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1496,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1519,7 +1519,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1542,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1565,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1588,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1611,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1634,7 +1634,7 @@
         <v>12</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1657,7 +1657,7 @@
         <v>12</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1680,7 +1680,7 @@
         <v>12</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1703,7 +1703,7 @@
         <v>12</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1726,7 +1726,7 @@
         <v>12</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1749,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1772,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1795,7 +1795,7 @@
         <v>13</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1818,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1841,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1864,7 +1864,7 @@
         <v>13</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1887,7 +1887,7 @@
         <v>13</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1910,7 +1910,7 @@
         <v>13</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1933,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1956,7 +1956,7 @@
         <v>14</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1979,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2002,7 +2002,7 @@
         <v>14</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
